--- a/medicine/Pharmacie/Aigremoine_eupatoire/Aigremoine_eupatoire.xlsx
+++ b/medicine/Pharmacie/Aigremoine_eupatoire/Aigremoine_eupatoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrimonia eupatoria
 L'Aigremoine eupatoire (Agrimonia eupatoria) est une espèce de plantes à fleurs de la famille des Rosacées, d'origine eurasiatique et commune dans toute l'Europe.
@@ -512,13 +524,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Agrimonia eupatoria a été décrite par le naturaliste suédois Carl von Linné en 1753[1].
-Noms vernaculaires
-Aigremoine eupatoire
-Eupatoire des Anciens
-Thé des bois</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Agrimonia eupatoria a été décrite par le naturaliste suédois Carl von Linné en 1753.
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +554,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aigremoine eupatoire
+Eupatoire des Anciens
+Thé des bois</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aigremoine_eupatoire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aigremoine_eupatoire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace, rhizomateuse. La tige est velue, rougeâtre, non ramifiée et porte une rosette basale de feuilles composées de 3-6 paires de folioles principales entre lesquelles s'intercalent des paires de folioles plus petites. La tige était utilisée pour ses propriétés tinctoriales (teinture jaune d'assez bonne qualité).
-Les fleurs sont jaunes, assemblées en grappes terminales pouvant s'élever jusqu'à un mètre du sol[2].
+Les fleurs sont jaunes, assemblées en grappes terminales pouvant s'élever jusqu'à un mètre du sol.
 Les fruits sont des akènes, marqués de sillons. Ils possèdent des poils crochus à leur sommet et se détachent facilement, ce qui facilite leur dissémination par les animaux ou les êtres humains.
 			Feuilles.
 			Feuilles.
@@ -557,8 +608,43 @@
 			Fleurs.
 			Fruits.
 			Fruits matures au MHNT.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aigremoine_eupatoire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aigremoine_eupatoire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : épi simple
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame, autogame
@@ -574,74 +660,116 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Aigremoine_eupatoire</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aigremoine_eupatoire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Usages médicinaux
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Partie utilisée : sommité fleurie, récoltées en pleine floraison (juillet-août).
 Composants actifs : tanins condensés, terpènes, flavonoïdes, phytostérine, eupatorine, vitamines K et P, silice (plus de 10 %)
 Propriétés : astringent, vulnéraire, anti-inflammatoire, cholagogue, antiaphonique.
 Mode d'emploi : principalement en infusion, poudre ou extrait sec.
 En usage interne : traitement des diarrhées légères, en cas de digestion lente et difficile, dans l'insuffisance veineuse et les crises hémorroïdaires.
 En usage externe : hygiène bucco-pharyngée (gargarismes), affections dermatologiques (antiprurigineux, collyres ophtalmologiques), effets décongestionnants sur les hémorroïdes et les problèmes circulatoires des membres inférieurs.
-[réf. nécessaire]
-Usages culinaires
-Toutes les parties tendres de l'aigremoine eupatoire, y compris la fleur sont comestibles, et parfois utilisées comme herbe aromatique en cuisine[3]. Elles sont mangées crues (en salade) ou cuites (cuisinées comme des légumes)[4].
-Feuilles et fleurs récoltées en début de floraison[4], en infusion, donnent un thé au goût légèrement citronné.
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aigremoine_eupatoire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aigremoine_eupatoire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Usages culinaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les parties tendres de l'aigremoine eupatoire, y compris la fleur sont comestibles, et parfois utilisées comme herbe aromatique en cuisine. Elles sont mangées crues (en salade) ou cuites (cuisinées comme des légumes).
+Feuilles et fleurs récoltées en début de floraison, en infusion, donnent un thé au goût légèrement citronné.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Aigremoine_eupatoire</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aigremoine_eupatoire</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante symbolisant la gratitude, on l'offre à une personne en reconnaissance de ses services. Elle exprime aussi la confiance et la jovialité[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante symbolisant la gratitude, on l'offre à une personne en reconnaissance de ses services. Elle exprime aussi la confiance et la jovialité.
 </t>
         </is>
       </c>
